--- a/Fire_Alarm/HLD(1).xlsx
+++ b/Fire_Alarm/HLD(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\cdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>MCAL :   DIO driver,ADC driver</t>
-  </si>
-  <si>
     <t>APIS</t>
   </si>
   <si>
@@ -42,105 +39,6 @@
   </si>
   <si>
     <t>No calls</t>
-  </si>
-  <si>
-    <t>BSW:      Sensor driver,LCD driver,Buzzer driver</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>extern u8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Write_LCD(void)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calls LCD driver to write a string on LCD -&gt;
-extern u8 CLCD_u8WriteDataStr(u8 *Copy_u8Data) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calls the LCD driver to write command -&gt;
-extern u8 CLCD_u8WriteComand(u8 Copy_u8command) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calls the LCD driver to write data -&gt;
-extern u8 CLCD_u8WriteDataStr(u8 *Copy_u8Data) </t>
-    </r>
-  </si>
-  <si>
-    <t>To write spacific data on LCD .</t>
   </si>
   <si>
     <t>LCD driver:
@@ -219,12 +117,78 @@
 To write pin value.
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Sensor driver,LCD driver,Buzzer driver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MCAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :   DIO driver,ADC driver</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +210,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -282,28 +284,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,72 +643,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:6" s="7" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" s="5" customFormat="1" ht="126.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" s="10" customFormat="1" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" s="11" customFormat="1" ht="340.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="126.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="340.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:6" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:6" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="5"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="3:6" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="5"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="3:6" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="5"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fire_Alarm/HLD(1).xlsx
+++ b/Fire_Alarm/HLD(1).xlsx
@@ -83,6 +83,72 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Sensor driver,LCD driver,Buzzer driver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MCAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :   DIO driver,ADC driver , TIMER 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">ADC driver:
 extern u8 ADC_u8ReadCh_SSht(u8 Copy_ChIdx , u16 * Copy_PtrToVal) </t>
     </r>
@@ -108,80 +174,15 @@
       <t xml:space="preserve">
 DIO driver:
 extern u8 DIO_u8WritePinVal(u8 Copy_u8PinIdx,u8 Copy_u8Pinval)
-</t>
+TIMER0 driver : 
+u32 TIM0_u8ReadOF(void);</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">
  to read the channel of ADC.
 To write pin value.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BSW:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      Sensor driver,LCD driver,Buzzer driver</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MCAL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :   DIO driver,ADC driver</t>
-    </r>
+To return the passed  time</t>
   </si>
 </sst>
 </file>
@@ -629,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,18 +663,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:6" s="10" customFormat="1" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -687,13 +688,13 @@
     </row>
     <row r="6" spans="3:6" s="11" customFormat="1" ht="340.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>5</v>
